--- a/old_database/crypto/rnaSample/rnaSample_1045.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_1045.xlsx
@@ -43,7 +43,7 @@
     <t>09.13.13</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1045</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/rnaSample/rnaSample_1045.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_1045.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="12">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">09.13.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.GISH</t>
   </si>
   <si>
     <t xml:space="preserve">Retrofitted_1045</t>
@@ -62,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,12 +95,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +155,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,15 +179,17 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G19"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -230,13 +229,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,13 +252,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,13 +275,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,13 +298,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,13 +321,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,13 +344,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,13 +367,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,13 +390,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,13 +413,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,13 +436,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,13 +459,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,13 +482,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,13 +505,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,13 +528,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,13 +574,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,13 +597,13 @@
         <v>8</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
